--- a/biology/Botanique/Rytigynia/Rytigynia.xlsx
+++ b/biology/Botanique/Rytigynia/Rytigynia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rytigynia est un genre de plantes de la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1 septembre 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 septembre 2017) :
 Rytigynia acuminatissima (K.Schum.) Robyns
 Rytigynia adenodonta (K.Schum.) Robyns
 Rytigynia argentea (Wernham) Robyns
@@ -648,7 +666,7 @@
 Rytigynia umbellulata (Hiern) Robyns
 Rytigynia verruculosa (K.Krause) Robyns
 Rytigynia xanthotricha (K.Schum.) Verdc.
-Selon World Checklist of Selected Plant Families (WCSP)  (1 septembre 2017)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (1 septembre 2017) :
 Rytigynia acuminatissima (K.Schum.) Robyns (1928)
 sous-espèce Rytigynia acuminatissima subsp. acuminatissima
 sous-espèce Rytigynia acuminatissima subsp. pedunculata Verdc. (1987)
@@ -752,7 +770,7 @@
 Rytigynia umbellulata (Hiern) Robyns (1928)
 Rytigynia verruculosa (K.Krause) Robyns (1928)
 Rytigynia xanthotricha (K.Schum.) Verdc. (1981)
-Selon NCBI  (1 septembre 2017)[4] :
+Selon NCBI  (1 septembre 2017) :
 Rytigynia adenodonta
 Rytigynia bagshawei
 Rytigynia beniensis
@@ -783,7 +801,7 @@
 Rytigynia uhligii
 Rytigynia umbellulata
 Rytigynia xanthotricha
-Selon The Plant List            (1 septembre 2017)[5] :
+Selon The Plant List            (1 septembre 2017) :
 Rytigynia acuminatissima (K.Schum.) Robyns
 Rytigynia adenodonta (K.Schum.) Robyns
 Rytigynia argentea (Wernham) Robyns
@@ -866,7 +884,7 @@
 Rytigynia umbellulata (Hiern) Robyns
 Rytigynia verruculosa (K.Krause) Robyns
 Rytigynia xanthotricha (K.Schum.) Verdc.
-Selon Tropicos                                           (1 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Rytigynia acuminatissima (K. Schum.) Robyns
 Rytigynia adenodonta (K. Schum.) Robyns
 Rytigynia affinis (Robyns) Hepper
